--- a/DEV/Книга1.xlsx
+++ b/DEV/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\git\autotests-in-python\DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F7647-E308-4DDA-8853-AD77502D4BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C7C56-126C-4D76-B04B-296922B36BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD10E291-17B3-4581-B11A-04B5A1E85827}"/>
   </bookViews>
@@ -31,22 +31,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>div.Box-body a[rel="nofollow"]</t>
-  </si>
-  <si>
-    <t>div &gt; section &gt; h2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>https://github.com/jquery/jquery-ui/releases</t>
+  </si>
+  <si>
+    <t>1. иерархические (вложенность — три элемента);</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>section div span a</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//section//div//span//a</t>
+  </si>
+  <si>
+    <t>2. по атрибутам: класс, идентификатор, имя;</t>
+  </si>
+  <si>
+    <t>[class="mr-3 mr-lg-0"]</t>
+  </si>
+  <si>
+    <t>#jump-to-results</t>
+  </si>
+  <si>
+    <t>[name="request-id"]</t>
+  </si>
+  <si>
+    <t>//*[@class="mr-3 mr-lg-0"]</t>
+  </si>
+  <si>
+    <t>//*[@id="jump-to-results"]</t>
+  </si>
+  <si>
+    <t>//*[@name="request-id"]</t>
+  </si>
+  <si>
+    <t>3. по кастомным атрибутам: data-*;</t>
+  </si>
+  <si>
+    <t>[data-turbo-replace]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +99,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +129,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -105,6 +151,407 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>140605</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A72C8F-F115-450D-908D-77AD9272FBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="365760"/>
+          <a:ext cx="18161905" cy="8961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>140605</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>67451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEE8BA4-8802-4A34-A1C6-697665294DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="10241280"/>
+          <a:ext cx="18161905" cy="9028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>83462</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>29356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D03FBD-AB5A-4BDD-B22A-20FCC26AE678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="20299680"/>
+          <a:ext cx="18104762" cy="8990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>169176</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D65EE4-9BE9-4689-AE3B-7E0A71C5F7E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="29809440"/>
+          <a:ext cx="18190476" cy="9000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>102509</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>57928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7E1FEB-3387-4DA5-99C7-3B5E0143573B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="39319200"/>
+          <a:ext cx="18123809" cy="9019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>35843</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>48404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F7101A-8D0C-41FB-9D46-752E06FA8CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="29809440"/>
+          <a:ext cx="18057143" cy="9009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121557</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>67451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D21B3EE-CB77-4314-8121-8147E1CF49BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="49194720"/>
+          <a:ext cx="18142857" cy="9028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73938</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>76975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F1DD2B-41A5-4421-AFAE-807F7F4272A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="68580000"/>
+          <a:ext cx="18095238" cy="9038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150128</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>76975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD08CFED-EE9E-48B2-88A0-811FDF0CF282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="78089760"/>
+          <a:ext cx="18171428" cy="9038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,36 +851,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A33F40-4E7B-4380-8294-EC16D41381A0}">
-  <dimension ref="D1:D3"/>
+  <dimension ref="C1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B413" workbookViewId="0">
+      <selection activeCell="C428" activeCellId="1" sqref="C428 C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>1</v>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E268" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E321" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="s">
+        <v>2</v>
+      </c>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E374" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="s">
+        <v>4</v>
+      </c>
+      <c r="E375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E426" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C427" t="s">
+        <v>13</v>
+      </c>
+      <c r="D427" t="s">
+        <v>2</v>
+      </c>
+      <c r="E427" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{78DC1919-E3DB-4012-BBB4-12C2619ABF92}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{78DC1919-E3DB-4012-BBB4-12C2619ABF92}"/>
+    <hyperlink ref="E55" r:id="rId2" xr:uid="{59195545-0B3D-40DC-8D84-B91547D642DE}"/>
+    <hyperlink ref="E110" r:id="rId3" xr:uid="{5F55E907-EC4A-4E05-9142-558736ECD0D2}"/>
+    <hyperlink ref="E215" r:id="rId4" xr:uid="{7E4798EC-9948-415A-B7CA-70BCCCF66B23}"/>
+    <hyperlink ref="E321" r:id="rId5" xr:uid="{BDB1F35E-195A-46B4-8309-842528929C98}"/>
+    <hyperlink ref="E162" r:id="rId6" xr:uid="{99F2AF70-A5A0-40A9-941C-D008D83406E2}"/>
+    <hyperlink ref="E268" r:id="rId7" xr:uid="{EB3C886B-65E6-4D25-AA01-AC6454AF9F4A}"/>
+    <hyperlink ref="E374" r:id="rId8" xr:uid="{D720432C-A4F2-4CAE-B5D8-A28F75EEC2AE}"/>
+    <hyperlink ref="E426" r:id="rId9" xr:uid="{08EFBD97-D643-40E4-A33B-C84984621C83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/DEV/Книга1.xlsx
+++ b/DEV/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\git\autotests-in-python\DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C7C56-126C-4D76-B04B-296922B36BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C2D7E-E895-4EA9-9452-EDDB3614586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD10E291-17B3-4581-B11A-04B5A1E85827}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>https://github.com/jquery/jquery-ui/releases</t>
   </si>
@@ -76,13 +76,133 @@
   </si>
   <si>
     <t>[data-turbo-replace]</t>
+  </si>
+  <si>
+    <t>//*[@data-turbo-replace]</t>
+  </si>
+  <si>
+    <t>4. связка иерархического и атрибута (например, //div[@attr=””])</t>
+  </si>
+  <si>
+    <t>section div span a.Link--primary</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>//section//div//span//a[@class="Link--primary"]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. два разных локатора с поиском </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>чайлда,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> парента и соседей (sibling и not-sibling);</t>
+    </r>
+  </si>
+  <si>
+    <t>div.js-header-wrapper &gt; span</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. два разных локатора с поиском чайлда, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>парента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и соседей (sibling и not-sibling);</t>
+    </r>
+  </si>
+  <si>
+    <t>//div[a[@aria-label="Homepage"]]</t>
+  </si>
+  <si>
+    <t>//a[@aria-label="Homepage"]/parent::div</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,"js-header-wrapper ")]/span</t>
+  </si>
+  <si>
+    <t>//div[[contains(@class,"js-header-wrapper ")]/child::span</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. два разных локатора с поиском чайлда, парента и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>соседей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (sibling и not-sibling);</t>
+    </r>
+  </si>
+  <si>
+    <t>ul[aria-labelledby='sr-footer-heading']&gt;li:nth-child(2)+li</t>
+  </si>
+  <si>
+    <t>ul[aria-labelledby='sr-footer-heading']&gt;li:nth-child(2)~li</t>
+  </si>
+  <si>
+    <t>//a[contains(@data-analytics-event,"text:privacy")]/parent::li/following-sibling::li</t>
+  </si>
+  <si>
+    <t>//a[contains(@data-analytics-event,"text:privacy")]/parent::li/following-sibling::li[1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +221,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -129,11 +257,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -163,8 +309,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>140605</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>498745</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>785</xdr:rowOff>
     </xdr:to>
@@ -207,8 +353,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>140605</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>498745</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>67451</xdr:rowOff>
     </xdr:to>
@@ -251,8 +397,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>83462</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>441602</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>29356</xdr:rowOff>
     </xdr:to>
@@ -295,8 +441,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>169176</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>527316</xdr:colOff>
       <xdr:row>265</xdr:row>
       <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
@@ -339,8 +485,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>102509</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>460649</xdr:colOff>
       <xdr:row>371</xdr:row>
       <xdr:rowOff>57928</xdr:rowOff>
     </xdr:to>
@@ -383,8 +529,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>35843</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>393983</xdr:colOff>
       <xdr:row>212</xdr:row>
       <xdr:rowOff>48404</xdr:rowOff>
     </xdr:to>
@@ -427,8 +573,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>121557</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>479697</xdr:colOff>
       <xdr:row>318</xdr:row>
       <xdr:rowOff>67451</xdr:rowOff>
     </xdr:to>
@@ -471,8 +617,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>73938</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>432078</xdr:colOff>
       <xdr:row>424</xdr:row>
       <xdr:rowOff>76975</xdr:rowOff>
     </xdr:to>
@@ -515,8 +661,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>150128</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508268</xdr:colOff>
       <xdr:row>476</xdr:row>
       <xdr:rowOff>76975</xdr:rowOff>
     </xdr:to>
@@ -543,6 +689,358 @@
         <a:xfrm>
           <a:off x="1219200" y="78089760"/>
           <a:ext cx="18171428" cy="9038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>517792</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>92168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14B1C2B-54F8-4402-BD23-576074B831BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="87782400"/>
+          <a:ext cx="18180952" cy="9419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>460649</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>6453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F047B9D5-D80C-46BE-9D5A-53BE6E4891D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="97657920"/>
+          <a:ext cx="18123809" cy="9333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>441602</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>6453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8348F9B4-C667-4B33-AB1F-07BF2BAC2429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="107533440"/>
+          <a:ext cx="18104762" cy="9333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>643</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>536840</xdr:colOff>
+      <xdr:row>694</xdr:row>
+      <xdr:rowOff>35025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB326B3C-F071-4779-98F9-5286F39538E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="117744240"/>
+          <a:ext cx="18200000" cy="9361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>489221</xdr:colOff>
+      <xdr:row>753</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A406AC4-172C-4D78-BF69-F3182054CADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="128137920"/>
+          <a:ext cx="18152381" cy="10050780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>758</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>422554</xdr:colOff>
+      <xdr:row>809</xdr:row>
+      <xdr:rowOff>6453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48789793-489B-48BC-BF67-64E29CE9FD68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="139034520"/>
+          <a:ext cx="18085714" cy="9333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>813</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>527316</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>179809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157FD886-D9ED-45EA-880C-BF50546F5DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="149245320"/>
+          <a:ext cx="18190476" cy="9323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>868</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>527316</xdr:colOff>
+      <xdr:row>920</xdr:row>
+      <xdr:rowOff>99764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEE077B-7ADE-407D-917B-E71F9E689143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="159456120"/>
+          <a:ext cx="18190476" cy="9609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,25 +1349,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A33F40-4E7B-4380-8294-EC16D41381A0}">
-  <dimension ref="C1:E427"/>
+  <dimension ref="C1:F868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B413" workbookViewId="0">
-      <selection activeCell="C428" activeCellId="1" sqref="C428 C428"/>
+    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
+      <selection activeCell="J867" sqref="J867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -877,15 +1376,15 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -893,12 +1392,12 @@
       <c r="D56" t="s">
         <v>4</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -909,12 +1408,12 @@
       <c r="D111" t="s">
         <v>2</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -925,12 +1424,12 @@
       <c r="D163" t="s">
         <v>4</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -941,12 +1440,12 @@
       <c r="D216" t="s">
         <v>2</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="268" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E268" s="1" t="s">
+      <c r="E268" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -957,12 +1456,12 @@
       <c r="D269" t="s">
         <v>4</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="321" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E321" s="1" t="s">
+      <c r="E321" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -973,12 +1472,12 @@
       <c r="D322" t="s">
         <v>2</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E374" s="1" t="s">
+      <c r="E374" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -989,12 +1488,12 @@
       <c r="D375" t="s">
         <v>4</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E375" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="426" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E426" s="1" t="s">
+      <c r="E426" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1005,8 +1504,169 @@
       <c r="D427" t="s">
         <v>2</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E427" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="479" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E479" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C480" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480" t="s">
+        <v>4</v>
+      </c>
+      <c r="E480" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="533" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E533" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C534" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D534" t="s">
+        <v>18</v>
+      </c>
+      <c r="E534" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E587" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C588" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D588" t="s">
+        <v>4</v>
+      </c>
+      <c r="E588" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="642" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C642" s="3"/>
+      <c r="D642" s="3"/>
+      <c r="E642" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F642" s="3"/>
+    </row>
+    <row r="643" spans="3:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C643" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E643" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F643" s="3"/>
+    </row>
+    <row r="697" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C697" s="3"/>
+      <c r="D697" s="3"/>
+      <c r="E697" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="3:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C698" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E698" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="699" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E699" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="755" spans="3:5" ht="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C756" s="3"/>
+      <c r="D756" s="3"/>
+      <c r="E756" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="3:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C757" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E757" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="758" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E758" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="811" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C811" s="3"/>
+      <c r="D811" s="3"/>
+      <c r="E811" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="3:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C812" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E812" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="813" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E813" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="866" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C866" s="3"/>
+      <c r="D866" s="3"/>
+      <c r="E866" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="3:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C867" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E867" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="868" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E868" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1020,9 +1680,17 @@
     <hyperlink ref="E268" r:id="rId7" xr:uid="{EB3C886B-65E6-4D25-AA01-AC6454AF9F4A}"/>
     <hyperlink ref="E374" r:id="rId8" xr:uid="{D720432C-A4F2-4CAE-B5D8-A28F75EEC2AE}"/>
     <hyperlink ref="E426" r:id="rId9" xr:uid="{08EFBD97-D643-40E4-A33B-C84984621C83}"/>
+    <hyperlink ref="E479" r:id="rId10" xr:uid="{DA158109-951F-4A71-AF00-40215381F1B8}"/>
+    <hyperlink ref="E533" r:id="rId11" xr:uid="{F260F7DA-455C-427C-AE90-4382FD6E4A2C}"/>
+    <hyperlink ref="E587" r:id="rId12" xr:uid="{33C088CF-577C-4130-9E76-A2454E634944}"/>
+    <hyperlink ref="E642" r:id="rId13" xr:uid="{ED657717-551C-48AD-967D-B04E56FEE0F1}"/>
+    <hyperlink ref="E756" r:id="rId14" xr:uid="{509691B0-C8C8-4A8D-ABEF-33EA1B90C618}"/>
+    <hyperlink ref="E697" r:id="rId15" xr:uid="{ADE2EDB9-01FE-4714-A6C9-804EF57DC397}"/>
+    <hyperlink ref="E811" r:id="rId16" xr:uid="{DAA8FEE8-29DE-481E-82B9-FA6670CF4DA1}"/>
+    <hyperlink ref="E866" r:id="rId17" xr:uid="{C6B0D28E-3AE3-4317-BD7D-1B13D60C9BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/DEV/Книга1.xlsx
+++ b/DEV/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\git\autotests-in-python\DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C2D7E-E895-4EA9-9452-EDDB3614586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE89BD-DE13-4027-99CA-897111DF26CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD10E291-17B3-4581-B11A-04B5A1E85827}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>https://github.com/jquery/jquery-ui/releases</t>
   </si>
@@ -196,6 +196,33 @@
   </si>
   <si>
     <t>//a[contains(@data-analytics-event,"text:privacy")]/parent::li/following-sibling::li[1]</t>
+  </si>
+  <si>
+    <t>//*[text()="Terms"]</t>
+  </si>
+  <si>
+    <t>//a[starts-with(text(),'jQuery')]</t>
+  </si>
+  <si>
+    <t>//ul[@aria-labelledby='sr-footer-heading']/li[last()-9]</t>
+  </si>
+  <si>
+    <t>6. для xPath с использованием функций</t>
+  </si>
+  <si>
+    <t>5. для CSS с использованием псевдоселекторов</t>
+  </si>
+  <si>
+    <t>ul[aria-labelledby="sr-footer-heading"]&gt;li:first-child</t>
+  </si>
+  <si>
+    <t>ul[aria-labelledby="sr-footer-heading"]&gt;li:last-child</t>
+  </si>
+  <si>
+    <t>ul[aria-labelledby="sr-footer-heading"]&gt;li:nth-child(5)</t>
+  </si>
+  <si>
+    <t>ul[aria-labelledby="sr-footer-heading"]&gt;li:not(:nth-child(5))</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1037,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>868</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>527316</xdr:colOff>
       <xdr:row>920</xdr:row>
-      <xdr:rowOff>99764</xdr:rowOff>
+      <xdr:rowOff>130244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1039,8 +1066,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="159456120"/>
+          <a:off x="1219200" y="159486600"/>
           <a:ext cx="18190476" cy="9609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>925</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508649</xdr:colOff>
+      <xdr:row>974</xdr:row>
+      <xdr:rowOff>57928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B73660A-0B2E-4F65-8FFB-D2FE82805A78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="169880280"/>
+          <a:ext cx="15123809" cy="9019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>977</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>584840</xdr:colOff>
+      <xdr:row>1027</xdr:row>
+      <xdr:rowOff>170286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47661F5F-E4AC-41BC-BB4F-C98102592EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="179390040"/>
+          <a:ext cx="15200000" cy="9314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1031</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>499126</xdr:colOff>
+      <xdr:row>1081</xdr:row>
+      <xdr:rowOff>132190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9467CC0-A218-4E0E-A716-3132AEFA3450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="189265560"/>
+          <a:ext cx="15114286" cy="9276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1089</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>433369</xdr:colOff>
+      <xdr:row>1140</xdr:row>
+      <xdr:rowOff>118900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468BBE06-18D7-4232-8E6E-2205FCA0DA9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="202758261"/>
+          <a:ext cx="15057143" cy="9580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1349,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A33F40-4E7B-4380-8294-EC16D41381A0}">
-  <dimension ref="C1:F868"/>
+  <dimension ref="C1:F1089"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
-      <selection activeCell="J867" sqref="J867"/>
+    <sheetView tabSelected="1" topLeftCell="A1126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1144" sqref="C1144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1667,6 +1870,93 @@
     <row r="868" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E868" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="923" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C923" s="3"/>
+      <c r="D923" s="3"/>
+      <c r="E923" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C924" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D924" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E924" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="976" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C976" s="3"/>
+      <c r="D976" s="3"/>
+      <c r="E976" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C977" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E977" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1030" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1030" s="3"/>
+      <c r="D1030" s="3"/>
+      <c r="E1030" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1031" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1031" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1031" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1085" s="3"/>
+      <c r="D1085" s="3"/>
+      <c r="E1085" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1086" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1086" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1087" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E1087" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E1088" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1089" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1089" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1688,9 +1978,13 @@
     <hyperlink ref="E697" r:id="rId15" xr:uid="{ADE2EDB9-01FE-4714-A6C9-804EF57DC397}"/>
     <hyperlink ref="E811" r:id="rId16" xr:uid="{DAA8FEE8-29DE-481E-82B9-FA6670CF4DA1}"/>
     <hyperlink ref="E866" r:id="rId17" xr:uid="{C6B0D28E-3AE3-4317-BD7D-1B13D60C9BE7}"/>
+    <hyperlink ref="E923" r:id="rId18" xr:uid="{851BE710-8674-4393-88E9-BBC1581C040D}"/>
+    <hyperlink ref="E976" r:id="rId19" xr:uid="{3454F647-395A-4D01-B8AD-DA604EE78CB8}"/>
+    <hyperlink ref="E1030" r:id="rId20" xr:uid="{08B1FFE2-E771-4827-B4C1-87DFC45471EB}"/>
+    <hyperlink ref="E1085" r:id="rId21" xr:uid="{A4C3E104-39EA-43C9-B992-9058524E59AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
-  <drawing r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/DEV/Книга1.xlsx
+++ b/DEV/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\git\autotests-in-python\DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE89BD-DE13-4027-99CA-897111DF26CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4517D1-74D6-406E-8F36-E4E1889E6AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD10E291-17B3-4581-B11A-04B5A1E85827}"/>
   </bookViews>
@@ -1211,15 +1211,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>6626</xdr:colOff>
       <xdr:row>1089</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>433369</xdr:colOff>
+      <xdr:colOff>439995</xdr:colOff>
       <xdr:row>1140</xdr:row>
-      <xdr:rowOff>118900</xdr:rowOff>
+      <xdr:rowOff>138778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1242,7 +1242,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="202758261"/>
+          <a:off x="1225826" y="202778139"/>
           <a:ext cx="15057143" cy="9580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A33F40-4E7B-4380-8294-EC16D41381A0}">
   <dimension ref="C1:F1089"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1144" sqref="C1144"/>
+    <sheetView tabSelected="1" topLeftCell="A1129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1143" sqref="C1143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
